--- a/Classeur.xlsx
+++ b/Classeur.xlsx
@@ -5,55 +5,71 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\School\PolyMtl\Java\TP1_INF4410_1761581\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\School\PolyMtl\Java\TP2_INF4410_1761581\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
-    <t>local</t>
+    <t>tachesOperationsLoad</t>
   </si>
   <si>
-    <t>local RMI</t>
+    <t>qi_min</t>
   </si>
   <si>
-    <t>distant RMI</t>
+    <t>T1(s)</t>
   </si>
   <si>
-    <t>local (µs)</t>
+    <t>fichier</t>
   </si>
   <si>
-    <t>local RMI (µs)</t>
+    <t>donnees-2317,txt</t>
   </si>
   <si>
-    <t>distant RMI (µs)</t>
+    <t>T2(s)</t>
   </si>
   <si>
-    <t>nb octets</t>
+    <t>T3(s)</t>
   </si>
   <si>
-    <t>moyenne</t>
+    <t>tachesOperationsLoad: 5</t>
+  </si>
+  <si>
+    <t>tachesOperationsLoad: 10</t>
+  </si>
+  <si>
+    <t>Secure</t>
+  </si>
+  <si>
+    <t>server 3 50% malicieux</t>
+  </si>
+  <si>
+    <t>server 2 50% malicieux</t>
+  </si>
+  <si>
+    <t>server 1 50% malicieux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0E+00"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,21 +79,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -93,12 +94,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor theme="1"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -106,243 +107,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="40 % - Accent6" xfId="2" builtinId="51"/>
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="0E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0E+00"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -389,25 +175,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR" sz="800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>temps moyen réponse (µs) = f(taille argument en octets)</a:t>
+              <a:rPr lang="fr-FR"/>
+              <a:t>mode sécurisé</a:t>
             </a:r>
-            <a:endParaRPr lang="fr-FR" sz="800">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14758791903148857"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -439,17 +213,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14208612812287352"/>
-          <c:y val="9.5937278226487788E-2"/>
-          <c:w val="0.77328906536255615"/>
-          <c:h val="0.72052403320829528"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -458,11 +222,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$1</c:f>
+              <c:f>Feuil2!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>local</c:v>
+                  <c:v>tachesOperationsLoad: 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -493,66 +257,57 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$2:$A$9</c:f>
+              <c:f>Feuil2!$C$7:$I$7</c:f>
               <c:numCache>
-                <c:formatCode>0E+00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10000000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000000000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$9</c:f>
+              <c:f>Feuil2!$C$8:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>_-* #\ ##0.000\ _€_-;\-* #\ ##0.000\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>288</c:v>
+                  <c:v>24.710307315000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>254</c:v>
+                  <c:v>30.853374063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>231</c:v>
+                  <c:v>25.348973148999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>231</c:v>
+                  <c:v>26.241409487999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>255</c:v>
+                  <c:v>22.948092599999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>442</c:v>
+                  <c:v>21.786096266000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -564,11 +319,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$C$1</c:f>
+              <c:f>Feuil2!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>local RMI</c:v>
+                  <c:v>tachesOperationsLoad: 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -599,172 +354,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$2:$A$9</c:f>
+              <c:f>Feuil2!$C$7:$I$7</c:f>
               <c:numCache>
-                <c:formatCode>0E+00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10000000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000000000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$C$2:$C$9</c:f>
+              <c:f>Feuil2!$C$9:$I$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>_-* #\ ##0.000\ _€_-;\-* #\ ##0.000\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>188046</c:v>
+                  <c:v>25.588916346000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160134</c:v>
+                  <c:v>21.389181814000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129725</c:v>
+                  <c:v>28.859176303000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133437</c:v>
+                  <c:v>30.010310526000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>248945</c:v>
+                  <c:v>23.509305955999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1130432</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7049599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>74887243</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>distant RMI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuil1!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>0E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil1!$D$2:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>820914</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>780697</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1060525</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1725952</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9515734</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86208520</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>853101245</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8542826282</c:v>
+                  <c:v>33.424875424</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>24.503431126999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,81 +422,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="350676648"/>
-        <c:axId val="350676256"/>
+        <c:axId val="350811504"/>
+        <c:axId val="350807976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="350676648"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="1000000000"/>
-          <c:min val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350676256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="350676256"/>
+        <c:axId val="350811504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -905,10 +483,71 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350676648"/>
+        <c:crossAx val="350807976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1000000000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="350807976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #\ ##0.000\ _€_-;\-* #\ ##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350811504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -920,16 +559,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12362249590596047"/>
-          <c:y val="0.90343280051366959"/>
-          <c:w val="0.75275500818807906"/>
-          <c:h val="9.6567199486330302E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1030,44 +660,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR" sz="1100"/>
-              <a:t>temps moyen</a:t>
+              <a:rPr lang="fr-FR"/>
+              <a:t>mode non sécurisé t = f(qi)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-              <a:t> réponse (</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>µs</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-              <a:t>) = f(taille argument en octets)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="900" i="1" baseline="0"/>
-              <a:t>échelles logarithmiques</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR" sz="900" i="1"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21295541783996813"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1099,17 +698,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.22018924139237919"/>
-          <c:y val="0.10532051282051282"/>
-          <c:w val="0.54641304133994595"/>
-          <c:h val="0.81068897637795279"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1118,11 +707,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$13</c:f>
+              <c:f>Feuil2!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>local (µs)</c:v>
+                  <c:v>server 3 50% malicieux</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1151,149 +740,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$14:$A$21</c:f>
+              <c:f>Feuil2!$C$13:$G$13</c:f>
               <c:numCache>
-                <c:formatCode>0E+00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000000000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$B$14:$B$21</c:f>
+              <c:f>Feuil2!$C$14:$G$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.28799999999999998</c:v>
+                  <c:v>56.564724415999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.254</c:v>
+                  <c:v>54.908741282000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23100000000000001</c:v>
+                  <c:v>60.925964886000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23100000000000001</c:v>
+                  <c:v>46.554430085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.40600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.48499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.442</c:v>
+                  <c:v>42.264623501000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,11 +795,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$C$13</c:f>
+              <c:f>Feuil2!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>local RMI (µs)</c:v>
+                  <c:v>server 2 50% malicieux</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1338,160 +828,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.3507325192429E-3"/>
-                  <c:y val="1.9230769230769232E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$14:$A$21</c:f>
+              <c:f>Feuil2!$C$13:$G$13</c:f>
               <c:numCache>
-                <c:formatCode>0E+00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000000000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$C$14:$C$21</c:f>
+              <c:f>Feuil2!$C$15:$G$15</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>188.04599999999999</c:v>
+                  <c:v>57.300631039000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>160.13399999999999</c:v>
+                  <c:v>61.674631118999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129.72499999999999</c:v>
+                  <c:v>63.551379081</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133.43700000000001</c:v>
+                  <c:v>56.127681805000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>248.94499999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1130.432</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7049.5990000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>74887.243000000002</c:v>
+                  <c:v>46.588248692999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,11 +883,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$D$13</c:f>
+              <c:f>Feuil2!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>distant RMI (µs)</c:v>
+                  <c:v>server 1 50% malicieux</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1536,221 +916,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.8455127634699948E-2"/>
-                  <c:y val="-2.2435897435897436E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout/>
-              <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="fr-FR"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$14:$A$21</c:f>
+              <c:f>Feuil2!$C$13:$G$13</c:f>
               <c:numCache>
-                <c:formatCode>0E+00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000000000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$D$14:$D$21</c:f>
+              <c:f>Feuil2!$C$16:$G$16</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>820.91399999999999</c:v>
+                  <c:v>49.666724367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>780.697</c:v>
+                  <c:v>49.572526543999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1060.5250000000001</c:v>
+                  <c:v>53.603920457000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1725.952</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9515.7340000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86208.52</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>853101.245</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8542826.2819999997</c:v>
+                  <c:v>56.277534111999998</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>57.462545671999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1765,16 +974,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="350675080"/>
-        <c:axId val="350672336"/>
+        <c:axId val="358242008"/>
+        <c:axId val="358243184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="350675080"/>
+        <c:axId val="358242008"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1000000000"/>
-          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1792,229 +998,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR" b="0" i="1"/>
-                  <a:t>nb</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" b="0" i="1" baseline="0"/>
-                  <a:t> octets passés en paramêtre - échelle logarithmique</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-FR" b="0" i="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0E+00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="350672336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="350672336"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Temps moyen pour 20 itérations (µs)</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR" sz="800" i="1"/>
-                  <a:t>échelle logarithmique</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2050,7 +1035,69 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350675080"/>
+        <c:crossAx val="358243184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="358243184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358242008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2063,7 +1110,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3247,20 +2294,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3277,23 +2324,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Graphique 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3308,43 +2353,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D9" totalsRowShown="0">
-  <autoFilter ref="A1:D9"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="nb octets" dataDxfId="11"/>
-    <tableColumn id="2" name="local"/>
-    <tableColumn id="3" name="local RMI"/>
-    <tableColumn id="4" name="distant RMI"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A13:D22" totalsRowCount="1" headerRowDxfId="0" dataDxfId="5" totalsRowDxfId="6" headerRowBorderDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A13:D22"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="nb octets" totalsRowLabel="moyenne" dataDxfId="10" totalsRowDxfId="4">
-      <calculatedColumnFormula>A2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="local (µs)" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="3" dataCellStyle="Milliers">
-      <calculatedColumnFormula>B2/1000</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(Tableau2[local (µs)])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="3" name="local RMI (µs)" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="2" dataCellStyle="Milliers">
-      <calculatedColumnFormula>C2/1000</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(Tableau2[local RMI (µs)])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="4" name="distant RMI (µs)" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="1" dataCellStyle="Milliers">
-      <calculatedColumnFormula>D2/1000</calculatedColumnFormula>
-      <totalsRowFormula>AVERAGE(Tableau2[distant RMI (µs)])</totalsRowFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3610,342 +2618,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A3:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>100</v>
-      </c>
-      <c r="B2">
-        <v>288</v>
-      </c>
-      <c r="C2">
-        <v>188046</v>
-      </c>
-      <c r="D2">
-        <v>820914</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <f>24.710307315</f>
+        <v>24.710307315000001</v>
+      </c>
+      <c r="D8" s="2">
+        <f>30.853374063</f>
+        <v>30.853374063</v>
+      </c>
+      <c r="E8" s="2">
+        <f>25.348973149</f>
+        <v>25.348973148999999</v>
+      </c>
+      <c r="F8" s="2">
+        <f>26.241409488</f>
+        <v>26.241409487999999</v>
+      </c>
+      <c r="G8" s="2">
+        <f>22.9480926</f>
+        <v>22.948092599999999</v>
+      </c>
+      <c r="H8" s="2">
+        <f>21.786096266</f>
+        <v>21.786096266000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B3">
-        <v>254</v>
-      </c>
-      <c r="C3">
-        <v>160134</v>
-      </c>
-      <c r="D3">
-        <v>780697</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <f>25.588916346</f>
+        <v>25.588916346000001</v>
+      </c>
+      <c r="D9" s="5">
+        <f>21.389181814</f>
+        <v>21.389181814000001</v>
+      </c>
+      <c r="E9" s="5">
+        <f>28.859176303</f>
+        <v>28.859176303000002</v>
+      </c>
+      <c r="F9" s="5">
+        <f>30.010310526</f>
+        <v>30.010310526000001</v>
+      </c>
+      <c r="G9" s="5">
+        <f>23.509305956</f>
+        <v>23.509305955999999</v>
+      </c>
+      <c r="H9" s="5">
+        <f>33.424875424</f>
+        <v>33.424875424</v>
+      </c>
+      <c r="I9">
+        <f>24.503431127</f>
+        <v>24.503431126999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>10000</v>
-      </c>
-      <c r="B4">
-        <v>231</v>
-      </c>
-      <c r="C4">
-        <v>129725</v>
-      </c>
-      <c r="D4">
-        <v>1060525</v>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10">
+        <f>27.106467724</f>
+        <v>27.106467724000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>100000</v>
-      </c>
-      <c r="B5">
-        <v>231</v>
-      </c>
-      <c r="C5">
-        <v>133437</v>
-      </c>
-      <c r="D5">
-        <v>1725952</v>
-      </c>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="B6">
-        <v>255</v>
-      </c>
-      <c r="C6">
-        <v>248945</v>
-      </c>
-      <c r="D6">
-        <v>9515734</v>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="B7">
-        <v>406</v>
-      </c>
-      <c r="C7">
-        <v>1130432</v>
-      </c>
-      <c r="D7">
-        <v>86208520</v>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="B8">
-        <v>485</v>
-      </c>
-      <c r="C8">
-        <v>7049599</v>
-      </c>
-      <c r="D8">
-        <v>853101245</v>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <f>56.564724416</f>
+        <v>56.564724415999997</v>
+      </c>
+      <c r="D14" s="3">
+        <f>54.908741282</f>
+        <v>54.908741282000001</v>
+      </c>
+      <c r="E14" s="3">
+        <f>60.925964886</f>
+        <v>60.925964886000003</v>
+      </c>
+      <c r="F14" s="3">
+        <f>46.554430085</f>
+        <v>46.554430085</v>
+      </c>
+      <c r="G14" s="3">
+        <f>42.264623501</f>
+        <v>42.264623501000003</v>
+      </c>
+      <c r="H14" s="3">
+        <f>55.101196989</f>
+        <v>55.101196989000002</v>
+      </c>
+      <c r="J14">
+        <f>66.153734753</f>
+        <v>66.153734752999995</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="B9">
-        <v>442</v>
-      </c>
-      <c r="C9">
-        <v>74887243</v>
-      </c>
-      <c r="D9">
-        <v>8542826282</v>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <f>57.300631039</f>
+        <v>57.300631039000002</v>
+      </c>
+      <c r="D15" s="3">
+        <f>61.674631119</f>
+        <v>61.674631118999997</v>
+      </c>
+      <c r="E15" s="3">
+        <f>63.551379081</f>
+        <v>63.551379081</v>
+      </c>
+      <c r="F15" s="3">
+        <f>56.127681805</f>
+        <v>56.127681805000002</v>
+      </c>
+      <c r="G15" s="3">
+        <f>46.588248693</f>
+        <v>46.588248692999997</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="J15">
+        <f>66.153734753</f>
+        <v>66.153734752999995</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>5</v>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <f>49.666724367</f>
+        <v>49.666724367</v>
+      </c>
+      <c r="D16">
+        <f>49.572526544</f>
+        <v>49.572526543999999</v>
+      </c>
+      <c r="E16">
+        <f>53.603920457</f>
+        <v>53.603920457000001</v>
+      </c>
+      <c r="F16">
+        <f>56.277534112</f>
+        <v>56.277534111999998</v>
+      </c>
+      <c r="G16" s="3">
+        <f>57.462545672</f>
+        <v>57.462545671999997</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <f>A2</f>
-        <v>100</v>
-      </c>
-      <c r="B14" s="4">
-        <f t="shared" ref="B14:D21" si="0">B2/1000</f>
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="C14" s="5">
-        <f t="shared" si="0"/>
-        <v>188.04599999999999</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" si="0"/>
-        <v>820.91399999999999</v>
-      </c>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <f t="shared" ref="A15:A20" si="1">A3</f>
-        <v>1000</v>
-      </c>
-      <c r="B15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.254</v>
-      </c>
-      <c r="C15" s="5">
-        <f t="shared" si="0"/>
-        <v>160.13399999999999</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="0"/>
-        <v>780.697</v>
-      </c>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-      <c r="B16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="C16" s="5">
-        <f t="shared" si="0"/>
-        <v>129.72499999999999</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="0"/>
-        <v>1060.5250000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-      <c r="B17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="C17" s="5">
-        <f t="shared" si="0"/>
-        <v>133.43700000000001</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="0"/>
-        <v>1725.952</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="B18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.255</v>
-      </c>
-      <c r="C18" s="5">
-        <f t="shared" si="0"/>
-        <v>248.94499999999999</v>
-      </c>
-      <c r="D18" s="5">
-        <f t="shared" si="0"/>
-        <v>9515.7340000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <f t="shared" si="1"/>
-        <v>10000000</v>
-      </c>
-      <c r="B19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="C19" s="5">
-        <f t="shared" si="0"/>
-        <v>1130.432</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" si="0"/>
-        <v>86208.52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <f t="shared" si="1"/>
-        <v>100000000</v>
-      </c>
-      <c r="B20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="C20" s="5">
-        <f t="shared" si="0"/>
-        <v>7049.5990000000002</v>
-      </c>
-      <c r="D20" s="5">
-        <f t="shared" si="0"/>
-        <v>853101.245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <f>A9</f>
-        <v>1000000000</v>
-      </c>
-      <c r="B21" s="4">
-        <f t="shared" si="0"/>
-        <v>0.442</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" si="0"/>
-        <v>74887.243000000002</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" si="0"/>
-        <v>8542826.2819999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="4">
-        <f>AVERAGE(Tableau2[local (µs)])</f>
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="C22" s="5">
-        <f>AVERAGE(Tableau2[local RMI (µs)])</f>
-        <v>10490.945125</v>
-      </c>
-      <c r="D22" s="5">
-        <f>AVERAGE(Tableau2[distant RMI (µs)])</f>
-        <v>1187004.9836249999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <f>CORREL(C18:C21,A18:A21)</f>
-        <v>0.99995439508513673</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <f>CORREL(D17:D21,A17:A21)</f>
-        <v>0.99999997260029394</v>
+    <row r="20" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>